--- a/scripts/doe_results_orig.xlsx
+++ b/scripts/doe_results_orig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chris/cse6242/cse6242-project/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910DD3DB-770A-E44C-B64C-73FF615AA0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71408AC-9150-1E46-A37E-D6DC190B4F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -3596,7 +3598,102 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Same?" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField showAll="0"/>
@@ -3692,101 +3789,6 @@
   <dataFields count="2">
     <dataField name="Count of Same?" fld="9" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Average of k" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Same?" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4279,7 +4281,7 @@
   <dimension ref="A1:AS61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
